--- a/src/main/java/com/miskevich/data/persons.xlsx
+++ b/src/main/java/com/miskevich/data/persons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>p_id</t>
   </si>
@@ -55,6 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,37 +417,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="C2" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>77</v>
+      <c r="C3" t="n">
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>
